--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.062226</v>
+        <v>1.8088715</v>
       </c>
       <c r="H2">
-        <v>4.124452</v>
+        <v>3.617743</v>
       </c>
       <c r="I2">
-        <v>0.2462863689641845</v>
+        <v>0.2086975408033734</v>
       </c>
       <c r="J2">
-        <v>0.1889627690219504</v>
+        <v>0.156781683894231</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N2">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O2">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P2">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q2">
-        <v>1.422200756431</v>
+        <v>3.446095565622</v>
       </c>
       <c r="R2">
-        <v>5.688803025724001</v>
+        <v>13.784382262488</v>
       </c>
       <c r="S2">
-        <v>0.007862597405602866</v>
+        <v>0.01582028822457663</v>
       </c>
       <c r="T2">
-        <v>0.00449285148226511</v>
+        <v>0.008960902948431481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.062226</v>
+        <v>1.8088715</v>
       </c>
       <c r="H3">
-        <v>4.124452</v>
+        <v>3.617743</v>
       </c>
       <c r="I3">
-        <v>0.2462863689641845</v>
+        <v>0.2086975408033734</v>
       </c>
       <c r="J3">
-        <v>0.1889627690219504</v>
+        <v>0.156781683894231</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.20485</v>
       </c>
       <c r="O3">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P3">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q3">
-        <v>6.327493665366666</v>
+        <v>5.550130275591667</v>
       </c>
       <c r="R3">
-        <v>37.9649619922</v>
+        <v>33.30078165355</v>
       </c>
       <c r="S3">
-        <v>0.03498137309540535</v>
+        <v>0.02547946189297302</v>
       </c>
       <c r="T3">
-        <v>0.02998362484858336</v>
+        <v>0.02164805551834057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.062226</v>
+        <v>1.8088715</v>
       </c>
       <c r="H4">
-        <v>4.124452</v>
+        <v>3.617743</v>
       </c>
       <c r="I4">
-        <v>0.2462863689641845</v>
+        <v>0.2086975408033734</v>
       </c>
       <c r="J4">
-        <v>0.1889627690219504</v>
+        <v>0.156781683894231</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N4">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O4">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P4">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q4">
-        <v>10.93832029264933</v>
+        <v>6.739772000911</v>
       </c>
       <c r="R4">
-        <v>65.62992175589601</v>
+        <v>40.438632005466</v>
       </c>
       <c r="S4">
-        <v>0.06047220012065181</v>
+        <v>0.03094085279759162</v>
       </c>
       <c r="T4">
-        <v>0.05183260694887457</v>
+        <v>0.02628820427843466</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.062226</v>
+        <v>1.8088715</v>
       </c>
       <c r="H5">
-        <v>4.124452</v>
+        <v>3.617743</v>
       </c>
       <c r="I5">
-        <v>0.2462863689641845</v>
+        <v>0.2086975408033734</v>
       </c>
       <c r="J5">
-        <v>0.1889627690219504</v>
+        <v>0.156781683894231</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N5">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O5">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P5">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q5">
-        <v>12.59259124606</v>
+        <v>12.347060204074</v>
       </c>
       <c r="R5">
-        <v>50.37036498424</v>
+        <v>49.388240816296</v>
       </c>
       <c r="S5">
-        <v>0.06961779116863542</v>
+        <v>0.05668271451995961</v>
       </c>
       <c r="T5">
-        <v>0.03978105199957697</v>
+        <v>0.03210613463273985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.062226</v>
+        <v>1.8088715</v>
       </c>
       <c r="H6">
-        <v>4.124452</v>
+        <v>3.617743</v>
       </c>
       <c r="I6">
-        <v>0.2462863689641845</v>
+        <v>0.2086975408033734</v>
       </c>
       <c r="J6">
-        <v>0.1889627690219504</v>
+        <v>0.156781683894231</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N6">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O6">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P6">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q6">
-        <v>1.944440587192666</v>
+        <v>7.683410819973332</v>
       </c>
       <c r="R6">
-        <v>11.666643523156</v>
+        <v>46.10046491984</v>
       </c>
       <c r="S6">
-        <v>0.01074978581404777</v>
+        <v>0.03527289693658539</v>
       </c>
       <c r="T6">
-        <v>0.009213976368851188</v>
+        <v>0.02996882879172954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.062226</v>
+        <v>1.8088715</v>
       </c>
       <c r="H7">
-        <v>4.124452</v>
+        <v>3.617743</v>
       </c>
       <c r="I7">
-        <v>0.2462863689641845</v>
+        <v>0.2086975408033734</v>
       </c>
       <c r="J7">
-        <v>0.1889627690219504</v>
+        <v>0.156781683894231</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N7">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O7">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P7">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q7">
-        <v>11.323674717096</v>
+        <v>9.693617556366501</v>
       </c>
       <c r="R7">
-        <v>67.942048302576</v>
+        <v>58.16170533819901</v>
       </c>
       <c r="S7">
-        <v>0.06260262135984129</v>
+        <v>0.04450132643168715</v>
       </c>
       <c r="T7">
-        <v>0.05365865737379919</v>
+        <v>0.03780955772455488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3.263426</v>
       </c>
       <c r="I8">
-        <v>0.1299142027309831</v>
+        <v>0.1255053184252889</v>
       </c>
       <c r="J8">
-        <v>0.1495146539366266</v>
+        <v>0.141426691598661</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N8">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O8">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P8">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q8">
-        <v>0.7502001762103334</v>
+        <v>2.072392993336</v>
       </c>
       <c r="R8">
-        <v>4.501201057262</v>
+        <v>12.434357960016</v>
       </c>
       <c r="S8">
-        <v>0.004147460850714542</v>
+        <v>0.009513913309960972</v>
       </c>
       <c r="T8">
-        <v>0.003554917923972081</v>
+        <v>0.008083283877651882</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.263426</v>
       </c>
       <c r="I9">
-        <v>0.1299142027309831</v>
+        <v>0.1255053184252889</v>
       </c>
       <c r="J9">
-        <v>0.1495146539366266</v>
+        <v>0.141426691598661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>9.20485</v>
       </c>
       <c r="O9">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P9">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q9">
         <v>3.337705201788889</v>
@@ -1013,10 +1013,10 @@
         <v>30.0393468161</v>
       </c>
       <c r="S9">
-        <v>0.01845241056270365</v>
+        <v>0.01532269122996251</v>
       </c>
       <c r="T9">
-        <v>0.02372420406519775</v>
+        <v>0.01952787338072276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.263426</v>
       </c>
       <c r="I10">
-        <v>0.1299142027309831</v>
+        <v>0.1255053184252889</v>
       </c>
       <c r="J10">
-        <v>0.1495146539366266</v>
+        <v>0.141426691598661</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N10">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O10">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P10">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q10">
-        <v>5.769881483949778</v>
+        <v>4.053125052801333</v>
       </c>
       <c r="R10">
-        <v>51.928933355548</v>
+        <v>36.478125475212</v>
       </c>
       <c r="S10">
-        <v>0.03189862962820083</v>
+        <v>0.01860703086276595</v>
       </c>
       <c r="T10">
-        <v>0.04101196405358529</v>
+        <v>0.02371357206290079</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.263426</v>
       </c>
       <c r="I11">
-        <v>0.1299142027309831</v>
+        <v>0.1255053184252889</v>
       </c>
       <c r="J11">
-        <v>0.1495146539366266</v>
+        <v>0.141426691598661</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N11">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O11">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P11">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q11">
-        <v>6.642496939353333</v>
+        <v>7.425203558045333</v>
       </c>
       <c r="R11">
-        <v>39.85498163611999</v>
+        <v>44.55122134827199</v>
       </c>
       <c r="S11">
-        <v>0.03672285995202841</v>
+        <v>0.03408752258245241</v>
       </c>
       <c r="T11">
-        <v>0.0314763074955828</v>
+        <v>0.02896170195615987</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3.263426</v>
       </c>
       <c r="I12">
-        <v>0.1299142027309831</v>
+        <v>0.1255053184252889</v>
       </c>
       <c r="J12">
-        <v>0.1495146539366266</v>
+        <v>0.141426691598661</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N12">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O12">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P12">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q12">
-        <v>1.025677749464222</v>
+        <v>4.620605100764444</v>
       </c>
       <c r="R12">
-        <v>9.231099745178</v>
+        <v>41.58544590688</v>
       </c>
       <c r="S12">
-        <v>0.005670430967959648</v>
+        <v>0.02121221047822231</v>
       </c>
       <c r="T12">
-        <v>0.007290454597482176</v>
+        <v>0.02703372104333523</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3.263426</v>
       </c>
       <c r="I13">
-        <v>0.1299142027309831</v>
+        <v>0.1255053184252889</v>
       </c>
       <c r="J13">
-        <v>0.1495146539366266</v>
+        <v>0.141426691598661</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N13">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O13">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P13">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q13">
-        <v>5.973153037432</v>
+        <v>5.829491585868667</v>
       </c>
       <c r="R13">
-        <v>53.758377336888</v>
+        <v>52.46542427281801</v>
       </c>
       <c r="S13">
-        <v>0.03302241076937597</v>
+        <v>0.02676194996192471</v>
       </c>
       <c r="T13">
-        <v>0.0424568058008065</v>
+        <v>0.03410653927789045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.302230333333333</v>
+        <v>1.03075</v>
       </c>
       <c r="H14">
-        <v>3.906691</v>
+        <v>3.09225</v>
       </c>
       <c r="I14">
-        <v>0.1555220331581923</v>
+        <v>0.1189222065708245</v>
       </c>
       <c r="J14">
-        <v>0.1789859959754975</v>
+        <v>0.1340084583183316</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N14">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O14">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P14">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q14">
-        <v>0.8980746848861668</v>
+        <v>1.963690071</v>
       </c>
       <c r="R14">
-        <v>5.388448109317</v>
+        <v>11.782140426</v>
       </c>
       <c r="S14">
-        <v>0.004964980967345006</v>
+        <v>0.009014881426061695</v>
       </c>
       <c r="T14">
-        <v>0.004255639888669275</v>
+        <v>0.007659292587197942</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.302230333333333</v>
+        <v>1.03075</v>
       </c>
       <c r="H15">
-        <v>3.906691</v>
+        <v>3.09225</v>
       </c>
       <c r="I15">
-        <v>0.1555220331581923</v>
+        <v>0.1189222065708245</v>
       </c>
       <c r="J15">
-        <v>0.1789859959754975</v>
+        <v>0.1340084583183316</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.20485</v>
       </c>
       <c r="O15">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P15">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q15">
-        <v>3.995611627927778</v>
+        <v>3.162633045833334</v>
       </c>
       <c r="R15">
-        <v>35.96050465135</v>
+        <v>28.4636974125</v>
       </c>
       <c r="S15">
-        <v>0.02208962797796527</v>
+        <v>0.01451897237928838</v>
       </c>
       <c r="T15">
-        <v>0.02840056263070512</v>
+        <v>0.01850358073433868</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.302230333333333</v>
+        <v>1.03075</v>
       </c>
       <c r="H16">
-        <v>3.906691</v>
+        <v>3.09225</v>
       </c>
       <c r="I16">
-        <v>0.1555220331581923</v>
+        <v>0.1189222065708245</v>
       </c>
       <c r="J16">
-        <v>0.1789859959754975</v>
+        <v>0.1340084583183316</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N16">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O16">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P16">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q16">
-        <v>6.907202450557556</v>
+        <v>3.8405270855</v>
       </c>
       <c r="R16">
-        <v>62.16482205501801</v>
+        <v>34.5647437695</v>
       </c>
       <c r="S16">
-        <v>0.03818627702323434</v>
+        <v>0.01763103903241195</v>
       </c>
       <c r="T16">
-        <v>0.04909597179787904</v>
+        <v>0.02246972758429484</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.302230333333333</v>
+        <v>1.03075</v>
       </c>
       <c r="H17">
-        <v>3.906691</v>
+        <v>3.09225</v>
       </c>
       <c r="I17">
-        <v>0.1555220331581923</v>
+        <v>0.1189222065708245</v>
       </c>
       <c r="J17">
-        <v>0.1789859959754975</v>
+        <v>0.1340084583183316</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N17">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O17">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P17">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q17">
-        <v>7.951822106736667</v>
+        <v>7.035730457000001</v>
       </c>
       <c r="R17">
-        <v>47.71093264042</v>
+        <v>42.214382742</v>
       </c>
       <c r="S17">
-        <v>0.04396142779669275</v>
+        <v>0.03229953481573919</v>
       </c>
       <c r="T17">
-        <v>0.03768070953845004</v>
+        <v>0.02744257809857963</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.302230333333333</v>
+        <v>1.03075</v>
       </c>
       <c r="H18">
-        <v>3.906691</v>
+        <v>3.09225</v>
       </c>
       <c r="I18">
-        <v>0.1555220331581923</v>
+        <v>0.1189222065708245</v>
       </c>
       <c r="J18">
-        <v>0.1789859959754975</v>
+        <v>0.1340084583183316</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N18">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O18">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P18">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q18">
-        <v>1.227852579691445</v>
+        <v>4.378241186666666</v>
       </c>
       <c r="R18">
-        <v>11.050673217223</v>
+        <v>39.40417068</v>
       </c>
       <c r="S18">
-        <v>0.006788148905061505</v>
+        <v>0.02009956954785643</v>
       </c>
       <c r="T18">
-        <v>0.008727500903005688</v>
+        <v>0.02561572528264878</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.302230333333333</v>
+        <v>1.03075</v>
       </c>
       <c r="H19">
-        <v>3.906691</v>
+        <v>3.09225</v>
       </c>
       <c r="I19">
-        <v>0.1555220331581923</v>
+        <v>0.1189222065708245</v>
       </c>
       <c r="J19">
-        <v>0.1789859959754975</v>
+        <v>0.1340084583183316</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N19">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O19">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P19">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q19">
-        <v>7.150541551412</v>
+        <v>5.523718128250001</v>
       </c>
       <c r="R19">
-        <v>64.354873962708</v>
+        <v>49.71346315425001</v>
       </c>
       <c r="S19">
-        <v>0.03953157048789346</v>
+        <v>0.02535820936946684</v>
       </c>
       <c r="T19">
-        <v>0.0508256112167883</v>
+        <v>0.03231755403127166</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.2308325</v>
+        <v>1.118385</v>
       </c>
       <c r="H20">
-        <v>2.461665</v>
+        <v>2.23677</v>
       </c>
       <c r="I20">
-        <v>0.1469951728026461</v>
+        <v>0.1290330458362469</v>
       </c>
       <c r="J20">
-        <v>0.1127817792047088</v>
+        <v>0.09693462666753803</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N20">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O20">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P20">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q20">
-        <v>0.8488356332137501</v>
+        <v>2.13064421058</v>
       </c>
       <c r="R20">
-        <v>3.395342532855</v>
+        <v>8.522576842319999</v>
       </c>
       <c r="S20">
-        <v>0.004692764236912778</v>
+        <v>0.009781332198579682</v>
       </c>
       <c r="T20">
-        <v>0.002681542964759959</v>
+        <v>0.005540326907677821</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.2308325</v>
+        <v>1.118385</v>
       </c>
       <c r="H21">
-        <v>2.461665</v>
+        <v>2.23677</v>
       </c>
       <c r="I21">
-        <v>0.1469951728026461</v>
+        <v>0.1290330458362469</v>
       </c>
       <c r="J21">
-        <v>0.1127817792047088</v>
+        <v>0.09693462666753803</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>9.20485</v>
       </c>
       <c r="O21">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P21">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q21">
-        <v>3.776542845875</v>
+        <v>3.43152205575</v>
       </c>
       <c r="R21">
-        <v>22.65925707525</v>
+        <v>20.5891323345</v>
       </c>
       <c r="S21">
-        <v>0.02087851229712481</v>
+        <v>0.01575338435547944</v>
       </c>
       <c r="T21">
-        <v>0.01789562343382538</v>
+        <v>0.01338451104507939</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.2308325</v>
+        <v>1.118385</v>
       </c>
       <c r="H22">
-        <v>2.461665</v>
+        <v>2.23677</v>
       </c>
       <c r="I22">
-        <v>0.1469951728026461</v>
+        <v>0.1290330458362469</v>
       </c>
       <c r="J22">
-        <v>0.1127817792047088</v>
+        <v>0.09693462666753803</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N22">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O22">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P22">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q22">
-        <v>6.528498870445</v>
+        <v>4.16705106429</v>
       </c>
       <c r="R22">
-        <v>39.17099322267001</v>
+        <v>25.00230638574</v>
       </c>
       <c r="S22">
-        <v>0.0360926247923371</v>
+        <v>0.01913004083265975</v>
       </c>
       <c r="T22">
-        <v>0.03093611330300397</v>
+        <v>0.01625341177741877</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.2308325</v>
+        <v>1.118385</v>
       </c>
       <c r="H23">
-        <v>2.461665</v>
+        <v>2.23677</v>
       </c>
       <c r="I23">
-        <v>0.1469951728026461</v>
+        <v>0.1290330458362469</v>
       </c>
       <c r="J23">
-        <v>0.1127817792047088</v>
+        <v>0.09693462666753803</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N23">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O23">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P23">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q23">
-        <v>7.515844803075</v>
+        <v>7.633912594859999</v>
       </c>
       <c r="R23">
-        <v>30.0633792123</v>
+        <v>30.53565037944</v>
       </c>
       <c r="S23">
-        <v>0.04155113937491307</v>
+        <v>0.03504566116410426</v>
       </c>
       <c r="T23">
-        <v>0.02374318415404971</v>
+        <v>0.01985050866312878</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.2308325</v>
+        <v>1.118385</v>
       </c>
       <c r="H24">
-        <v>2.461665</v>
+        <v>2.23677</v>
       </c>
       <c r="I24">
-        <v>0.1469951728026461</v>
+        <v>0.1290330458362469</v>
       </c>
       <c r="J24">
-        <v>0.1127817792047088</v>
+        <v>0.09693462666753803</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N24">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O24">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P24">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q24">
-        <v>1.1605326812075</v>
+        <v>4.750481949599999</v>
       </c>
       <c r="R24">
-        <v>6.963196087245</v>
+        <v>28.5028916976</v>
       </c>
       <c r="S24">
-        <v>0.006415972714905618</v>
+        <v>0.02180844733328103</v>
       </c>
       <c r="T24">
-        <v>0.005499330126287822</v>
+        <v>0.01852906001793849</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.2308325</v>
+        <v>1.118385</v>
       </c>
       <c r="H25">
-        <v>2.461665</v>
+        <v>2.23677</v>
       </c>
       <c r="I25">
-        <v>0.1469951728026461</v>
+        <v>0.1290330458362469</v>
       </c>
       <c r="J25">
-        <v>0.1127817792047088</v>
+        <v>0.09693462666753803</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N25">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O25">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P25">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q25">
-        <v>6.75849633417</v>
+        <v>5.993348046435001</v>
       </c>
       <c r="R25">
-        <v>40.55097800502</v>
+        <v>35.96008827861</v>
       </c>
       <c r="S25">
-        <v>0.03736415938645272</v>
+        <v>0.02751417995214278</v>
       </c>
       <c r="T25">
-        <v>0.03202598522278194</v>
+        <v>0.02337680825629477</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.278373333333333</v>
+        <v>2.430891333333333</v>
       </c>
       <c r="H26">
-        <v>3.83512</v>
+        <v>7.292674</v>
       </c>
       <c r="I26">
-        <v>0.1526728527558608</v>
+        <v>0.2804627322763945</v>
       </c>
       <c r="J26">
-        <v>0.175706953246507</v>
+        <v>0.3160417171180145</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N26">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O26">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P26">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q26">
-        <v>0.8816218599066667</v>
+        <v>4.631110526264</v>
       </c>
       <c r="R26">
-        <v>5.28973115944</v>
+        <v>27.786663157584</v>
       </c>
       <c r="S26">
-        <v>0.004874021981130368</v>
+        <v>0.02126043864141743</v>
       </c>
       <c r="T26">
-        <v>0.004177676107435501</v>
+        <v>0.01806345667686997</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.278373333333333</v>
+        <v>2.430891333333333</v>
       </c>
       <c r="H27">
-        <v>3.83512</v>
+        <v>7.292674</v>
       </c>
       <c r="I27">
-        <v>0.1526728527558608</v>
+        <v>0.2804627322763945</v>
       </c>
       <c r="J27">
-        <v>0.175706953246507</v>
+        <v>0.3160417171180145</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>9.20485</v>
       </c>
       <c r="O27">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P27">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q27">
-        <v>3.922411592444445</v>
+        <v>7.458663363211111</v>
       </c>
       <c r="R27">
-        <v>35.301704332</v>
+        <v>67.1279702689</v>
       </c>
       <c r="S27">
-        <v>0.02168494361362446</v>
+        <v>0.03424112939676757</v>
       </c>
       <c r="T27">
-        <v>0.02788026126362945</v>
+        <v>0.04363831583093625</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.278373333333333</v>
+        <v>2.430891333333333</v>
       </c>
       <c r="H28">
-        <v>3.83512</v>
+        <v>7.292674</v>
       </c>
       <c r="I28">
-        <v>0.1526728527558608</v>
+        <v>0.2804627322763945</v>
       </c>
       <c r="J28">
-        <v>0.175706953246507</v>
+        <v>0.3160417171180145</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N28">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O28">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P28">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q28">
-        <v>6.78066175752889</v>
+        <v>9.057389286998665</v>
       </c>
       <c r="R28">
-        <v>61.02595581776</v>
+        <v>81.51650358298799</v>
       </c>
       <c r="S28">
-        <v>0.03748670031424202</v>
+        <v>0.04158053842498369</v>
       </c>
       <c r="T28">
-        <v>0.0481965283052798</v>
+        <v>0.052991963179261</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.278373333333333</v>
+        <v>2.430891333333333</v>
       </c>
       <c r="H29">
-        <v>3.83512</v>
+        <v>7.292674</v>
       </c>
       <c r="I29">
-        <v>0.1526728527558608</v>
+        <v>0.2804627322763945</v>
       </c>
       <c r="J29">
-        <v>0.175706953246507</v>
+        <v>0.3160417171180145</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N29">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O29">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P29">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q29">
-        <v>7.806143869066666</v>
+        <v>16.59286557515466</v>
       </c>
       <c r="R29">
-        <v>46.8368632144</v>
+        <v>99.557193450928</v>
       </c>
       <c r="S29">
-        <v>0.04315604970335568</v>
+        <v>0.07617429954332153</v>
       </c>
       <c r="T29">
-        <v>0.03699039488024534</v>
+        <v>0.06471979167029869</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.278373333333333</v>
+        <v>2.430891333333333</v>
       </c>
       <c r="H30">
-        <v>3.83512</v>
+        <v>7.292674</v>
       </c>
       <c r="I30">
-        <v>0.1526728527558608</v>
+        <v>0.2804627322763945</v>
       </c>
       <c r="J30">
-        <v>0.175706953246507</v>
+        <v>0.3160417171180145</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N30">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O30">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P30">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q30">
-        <v>1.205358188151111</v>
+        <v>10.32551885123555</v>
       </c>
       <c r="R30">
-        <v>10.84822369336</v>
+        <v>92.92966966112</v>
       </c>
       <c r="S30">
-        <v>0.006663789285812335</v>
+        <v>0.04740225022324986</v>
       </c>
       <c r="T30">
-        <v>0.008567612146221745</v>
+        <v>0.06041139421454132</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.278373333333333</v>
+        <v>2.430891333333333</v>
       </c>
       <c r="H31">
-        <v>3.83512</v>
+        <v>7.292674</v>
       </c>
       <c r="I31">
-        <v>0.1526728527558608</v>
+        <v>0.2804627322763945</v>
       </c>
       <c r="J31">
-        <v>0.175706953246507</v>
+        <v>0.3160417171180145</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N31">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O31">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P31">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q31">
-        <v>7.01954285984</v>
+        <v>13.02697892383133</v>
       </c>
       <c r="R31">
-        <v>63.17588573856</v>
+        <v>117.242810314482</v>
       </c>
       <c r="S31">
-        <v>0.03880734785769593</v>
+        <v>0.05980407604665445</v>
       </c>
       <c r="T31">
-        <v>0.0498944805436952</v>
+        <v>0.07621679554610722</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.411814333333333</v>
+        <v>1.190724333333333</v>
       </c>
       <c r="H32">
-        <v>4.235443</v>
+        <v>3.572173</v>
       </c>
       <c r="I32">
-        <v>0.1686093695881332</v>
+        <v>0.1373791560878719</v>
       </c>
       <c r="J32">
-        <v>0.1940478486147097</v>
+        <v>0.154806822403224</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N32">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O32">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P32">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q32">
-        <v>0.9736485781901667</v>
+        <v>2.268458453228</v>
       </c>
       <c r="R32">
-        <v>5.841891469141001</v>
+        <v>13.610750719368</v>
       </c>
       <c r="S32">
-        <v>0.005382789138755697</v>
+        <v>0.01041400793221088</v>
       </c>
       <c r="T32">
-        <v>0.004613756290677983</v>
+        <v>0.008848029162935931</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.411814333333333</v>
+        <v>1.190724333333333</v>
       </c>
       <c r="H33">
-        <v>4.235443</v>
+        <v>3.572173</v>
       </c>
       <c r="I33">
-        <v>0.1686093695881332</v>
+        <v>0.1373791560878719</v>
       </c>
       <c r="J33">
-        <v>0.1940478486147097</v>
+        <v>0.154806822403224</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>9.20485</v>
       </c>
       <c r="O33">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P33">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q33">
-        <v>4.331846388727778</v>
+        <v>3.653479626561111</v>
       </c>
       <c r="R33">
-        <v>38.98661749855</v>
+        <v>32.88131663905</v>
       </c>
       <c r="S33">
-        <v>0.023948492520109</v>
+        <v>0.01677234412516443</v>
       </c>
       <c r="T33">
-        <v>0.03079049870856988</v>
+        <v>0.02137537117067663</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.411814333333333</v>
+        <v>1.190724333333333</v>
       </c>
       <c r="H34">
-        <v>4.235443</v>
+        <v>3.572173</v>
       </c>
       <c r="I34">
-        <v>0.1686093695881332</v>
+        <v>0.1373791560878719</v>
       </c>
       <c r="J34">
-        <v>0.1940478486147097</v>
+        <v>0.154806822403224</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N34">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O34">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P34">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q34">
-        <v>7.488450524701555</v>
+        <v>4.436584092680667</v>
       </c>
       <c r="R34">
-        <v>67.39605472231401</v>
+        <v>39.92925683412599</v>
       </c>
       <c r="S34">
-        <v>0.04139969086731423</v>
+        <v>0.02036740936002203</v>
       </c>
       <c r="T34">
-        <v>0.05322744749444586</v>
+        <v>0.02595707145087663</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.411814333333333</v>
+        <v>1.190724333333333</v>
       </c>
       <c r="H35">
-        <v>4.235443</v>
+        <v>3.572173</v>
       </c>
       <c r="I35">
-        <v>0.1686093695881332</v>
+        <v>0.1373791560878719</v>
       </c>
       <c r="J35">
-        <v>0.1940478486147097</v>
+        <v>0.154806822403224</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N35">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O35">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P35">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q35">
-        <v>8.620975981776667</v>
+        <v>8.127689020542666</v>
       </c>
       <c r="R35">
-        <v>51.72585589066</v>
+        <v>48.76613412325599</v>
       </c>
       <c r="S35">
-        <v>0.04766082642100635</v>
+        <v>0.03731248320198674</v>
       </c>
       <c r="T35">
-        <v>0.0408515793672091</v>
+        <v>0.03170171769233972</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.411814333333333</v>
+        <v>1.190724333333333</v>
       </c>
       <c r="H36">
-        <v>4.235443</v>
+        <v>3.572173</v>
       </c>
       <c r="I36">
-        <v>0.1686093695881332</v>
+        <v>0.1373791560878719</v>
       </c>
       <c r="J36">
-        <v>0.1940478486147097</v>
+        <v>0.154806822403224</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N36">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O36">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P36">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q36">
-        <v>1.331177616475444</v>
+        <v>5.057752430915555</v>
       </c>
       <c r="R36">
-        <v>11.980598548279</v>
+        <v>45.51977187823999</v>
       </c>
       <c r="S36">
-        <v>0.007359378502907041</v>
+        <v>0.02321906044157974</v>
       </c>
       <c r="T36">
-        <v>0.009461928933496179</v>
+        <v>0.02959133389282734</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.411814333333333</v>
+        <v>1.190724333333333</v>
       </c>
       <c r="H37">
-        <v>4.235443</v>
+        <v>3.572173</v>
       </c>
       <c r="I37">
-        <v>0.1686093695881332</v>
+        <v>0.1373791560878719</v>
       </c>
       <c r="J37">
-        <v>0.1940478486147097</v>
+        <v>0.154806822403224</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N37">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O37">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P37">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q37">
-        <v>7.752266857076</v>
+        <v>6.381009542354334</v>
       </c>
       <c r="R37">
-        <v>69.77040171368401</v>
+        <v>57.429085881189</v>
       </c>
       <c r="S37">
-        <v>0.04285819213804085</v>
+        <v>0.02929385102690807</v>
       </c>
       <c r="T37">
-        <v>0.05510263782031072</v>
+        <v>0.03733329903356772</v>
       </c>
     </row>
   </sheetData>
